--- a/output/Results - sem1 (Extended).xlsx
+++ b/output/Results - sem1 (Extended).xlsx
@@ -448,6 +448,12 @@
     <t>KUMARA K.B.R.</t>
   </si>
   <si>
+    <t>230258</t>
+  </si>
+  <si>
+    <t>IMADUWAGE O.N.H.</t>
+  </si>
+  <si>
     <t>230108</t>
   </si>
   <si>
@@ -565,12 +571,6 @@
     <t>KUMARA P.K.M.P.</t>
   </si>
   <si>
-    <t>230258</t>
-  </si>
-  <si>
-    <t>IMADUWAGE O.N.H.</t>
-  </si>
-  <si>
     <t>230147</t>
   </si>
   <si>
@@ -718,18 +718,18 @@
     <t>NUWANAKA W.A.S.</t>
   </si>
   <si>
+    <t>230581</t>
+  </si>
+  <si>
+    <t>SANTHOSH S.</t>
+  </si>
+  <si>
     <t>230077</t>
   </si>
   <si>
     <t>BANDARA K.M.N.D.</t>
   </si>
   <si>
-    <t>230581</t>
-  </si>
-  <si>
-    <t>SANTHOSH S.</t>
-  </si>
-  <si>
     <t>230444</t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>48(41.7%)</t>
   </si>
   <si>
-    <t>58(50.4%)</t>
+    <t>59(51.3%)</t>
   </si>
   <si>
     <t>70(60.9%)</t>
@@ -799,7 +799,7 @@
     <t>11(9.6%)</t>
   </si>
   <si>
-    <t>10(8.7%)</t>
+    <t>9(7.8%)</t>
   </si>
   <si>
     <t>13(11.3%)</t>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O5" t="s">
         <v>260</v>
@@ -3351,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="J54">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K54">
         <v>53</v>
@@ -3386,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="J55">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K55">
         <v>54</v>
@@ -3421,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="J56">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K56">
         <v>54</v>
@@ -3456,7 +3456,7 @@
         <v>119</v>
       </c>
       <c r="J57">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K57">
         <v>54</v>
@@ -3491,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="J58">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K58">
         <v>54</v>
@@ -3526,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="J59">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K59">
         <v>54</v>
@@ -3561,7 +3561,7 @@
         <v>16</v>
       </c>
       <c r="J60">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K60">
         <v>59</v>
@@ -3596,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="J61">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K61">
         <v>59</v>
@@ -3631,7 +3631,7 @@
         <v>13</v>
       </c>
       <c r="J62">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K62">
         <v>61</v>
@@ -3666,7 +3666,7 @@
         <v>16</v>
       </c>
       <c r="J63">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K63">
         <v>62</v>
@@ -3701,7 +3701,7 @@
         <v>16</v>
       </c>
       <c r="J64">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K64">
         <v>62</v>
@@ -3736,7 +3736,7 @@
         <v>16</v>
       </c>
       <c r="J65">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="K65">
         <v>62</v>
@@ -3771,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="J66">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K66">
         <v>65</v>
@@ -3791,13 +3791,13 @@
         <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
@@ -3806,7 +3806,7 @@
         <v>13</v>
       </c>
       <c r="J67">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K67">
         <v>66</v>
@@ -3823,25 +3823,25 @@
         <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J68">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K68">
         <v>67</v>
@@ -3858,7 +3858,7 @@
         <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
         <v>119</v>
@@ -3867,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
         <v>16</v>
@@ -3876,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="J69">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K69">
         <v>68</v>
@@ -3893,28 +3893,28 @@
         <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
       </c>
       <c r="J70">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K70">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3940,16 +3940,16 @@
         <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J71">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K71">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3966,10 +3966,10 @@
         <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3978,13 +3978,13 @@
         <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J72">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K72">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3998,13 +3998,13 @@
         <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -4016,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="J73">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K73">
         <v>72</v>
@@ -4033,10 +4033,10 @@
         <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -4051,10 +4051,10 @@
         <v>16</v>
       </c>
       <c r="J74">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K74">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4086,10 +4086,10 @@
         <v>16</v>
       </c>
       <c r="J75">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K75">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4103,13 +4103,13 @@
         <v>163</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -4121,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="J76">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K76">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4156,10 +4156,10 @@
         <v>16</v>
       </c>
       <c r="J77">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K77">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4191,10 +4191,10 @@
         <v>16</v>
       </c>
       <c r="J78">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K78">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4226,10 +4226,10 @@
         <v>16</v>
       </c>
       <c r="J79">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K79">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4243,10 +4243,10 @@
         <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -4261,10 +4261,10 @@
         <v>16</v>
       </c>
       <c r="J80">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K80">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4296,15 +4296,15 @@
         <v>16</v>
       </c>
       <c r="J81">
-        <v>3.94</v>
+        <v>3.9357</v>
       </c>
       <c r="K81">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
         <v>174</v>
@@ -4313,33 +4313,33 @@
         <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E82" t="s">
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I82" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="J82">
-        <v>3.91</v>
+        <v>3.9357</v>
       </c>
       <c r="K82">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>176</v>
@@ -4348,25 +4348,25 @@
         <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="J83">
-        <v>3.91</v>
+        <v>3.9143</v>
       </c>
       <c r="K83">
         <v>82</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>178</v>
@@ -4383,25 +4383,25 @@
         <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="H84" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J84">
-        <v>3.9</v>
+        <v>3.9143</v>
       </c>
       <c r="K84">
         <v>83</v>
@@ -4409,31 +4409,31 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
         <v>181</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
         <v>182</v>
       </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
-        <v>180</v>
-      </c>
       <c r="I85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J85">
         <v>3.9</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>183</v>
@@ -4453,25 +4453,25 @@
         <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J86">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="K86">
         <v>85</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>185</v>
@@ -4506,7 +4506,7 @@
         <v>16</v>
       </c>
       <c r="J87">
-        <v>3.89</v>
+        <v>3.8929</v>
       </c>
       <c r="K87">
         <v>86</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>187</v>
@@ -4541,7 +4541,7 @@
         <v>13</v>
       </c>
       <c r="J88">
-        <v>3.89</v>
+        <v>3.8929</v>
       </c>
       <c r="K88">
         <v>86</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>189</v>
@@ -4576,7 +4576,7 @@
         <v>16</v>
       </c>
       <c r="J89">
-        <v>3.89</v>
+        <v>3.8929</v>
       </c>
       <c r="K89">
         <v>88</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
         <v>191</v>
@@ -4611,7 +4611,7 @@
         <v>16</v>
       </c>
       <c r="J90">
-        <v>3.89</v>
+        <v>3.8929</v>
       </c>
       <c r="K90">
         <v>88</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
         <v>193</v>
@@ -4646,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="J91">
-        <v>3.89</v>
+        <v>3.8929</v>
       </c>
       <c r="K91">
         <v>88</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
         <v>195</v>
@@ -4681,7 +4681,7 @@
         <v>16</v>
       </c>
       <c r="J92">
-        <v>3.89</v>
+        <v>3.8929</v>
       </c>
       <c r="K92">
         <v>88</v>
@@ -4716,7 +4716,7 @@
         <v>16</v>
       </c>
       <c r="J93">
-        <v>3.87</v>
+        <v>3.8714</v>
       </c>
       <c r="K93">
         <v>92</v>
@@ -4751,7 +4751,7 @@
         <v>16</v>
       </c>
       <c r="J94">
-        <v>3.86</v>
+        <v>3.8571</v>
       </c>
       <c r="K94">
         <v>93</v>
@@ -4786,7 +4786,7 @@
         <v>16</v>
       </c>
       <c r="J95">
-        <v>3.86</v>
+        <v>3.8571</v>
       </c>
       <c r="K95">
         <v>94</v>
@@ -4803,7 +4803,7 @@
         <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4838,7 +4838,7 @@
         <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -4911,7 +4911,7 @@
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -4978,7 +4978,7 @@
         <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
@@ -5013,7 +5013,7 @@
         <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E102" t="s">
         <v>16</v>
@@ -5048,7 +5048,7 @@
         <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E103" t="s">
         <v>16</v>
@@ -5083,7 +5083,7 @@
         <v>221</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -5118,7 +5118,7 @@
         <v>223</v>
       </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
@@ -5223,7 +5223,7 @@
         <v>229</v>
       </c>
       <c r="D108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E108" t="s">
         <v>16</v>
@@ -5258,7 +5258,7 @@
         <v>231</v>
       </c>
       <c r="D109" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -5293,7 +5293,7 @@
         <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E110" t="s">
         <v>16</v>
@@ -5311,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="J110">
-        <v>3.81</v>
+        <v>3.8071</v>
       </c>
       <c r="K110">
         <v>109</v>
@@ -5328,33 +5328,33 @@
         <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="H111" t="s">
         <v>16</v>
       </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="J111">
-        <v>3.79</v>
+        <v>3.7929</v>
       </c>
       <c r="K111">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>236</v>
@@ -5363,25 +5363,25 @@
         <v>237</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="E112" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="H112" t="s">
         <v>16</v>
       </c>
       <c r="I112" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="J112">
-        <v>3.79</v>
+        <v>3.7857</v>
       </c>
       <c r="K112">
         <v>111</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>238</v>
@@ -5416,15 +5416,15 @@
         <v>119</v>
       </c>
       <c r="J113">
-        <v>3.79</v>
+        <v>3.7857</v>
       </c>
       <c r="K113">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
         <v>240</v>
@@ -5451,10 +5451,10 @@
         <v>16</v>
       </c>
       <c r="J114">
-        <v>3.79</v>
+        <v>3.7857</v>
       </c>
       <c r="K114">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5468,7 +5468,7 @@
         <v>243</v>
       </c>
       <c r="D115" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E115" t="s">
         <v>16</v>
@@ -5486,10 +5486,10 @@
         <v>13</v>
       </c>
       <c r="J115">
-        <v>3.76</v>
+        <v>3.7643</v>
       </c>
       <c r="K115">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5509,7 +5509,7 @@
         <v>119</v>
       </c>
       <c r="F116" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G116" t="s">
         <v>119</v>

--- a/output/Results - sem1 (Extended).xlsx
+++ b/output/Results - sem1 (Extended).xlsx
@@ -3351,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="J54">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K54">
         <v>53</v>
@@ -3386,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="J55">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K55">
         <v>54</v>
@@ -3421,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="J56">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K56">
         <v>54</v>
@@ -3456,7 +3456,7 @@
         <v>119</v>
       </c>
       <c r="J57">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K57">
         <v>54</v>
@@ -3491,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="J58">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K58">
         <v>54</v>
@@ -3526,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="J59">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K59">
         <v>54</v>
@@ -3561,7 +3561,7 @@
         <v>16</v>
       </c>
       <c r="J60">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K60">
         <v>59</v>
@@ -3596,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="J61">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K61">
         <v>59</v>
@@ -3631,7 +3631,7 @@
         <v>13</v>
       </c>
       <c r="J62">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K62">
         <v>61</v>
@@ -3666,7 +3666,7 @@
         <v>16</v>
       </c>
       <c r="J63">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K63">
         <v>62</v>
@@ -3701,7 +3701,7 @@
         <v>16</v>
       </c>
       <c r="J64">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K64">
         <v>62</v>
@@ -3736,7 +3736,7 @@
         <v>16</v>
       </c>
       <c r="J65">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="K65">
         <v>62</v>
@@ -3771,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="J66">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K66">
         <v>65</v>
@@ -3806,7 +3806,7 @@
         <v>13</v>
       </c>
       <c r="J67">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K67">
         <v>66</v>
@@ -3841,7 +3841,7 @@
         <v>13</v>
       </c>
       <c r="J68">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K68">
         <v>67</v>
@@ -3876,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="J69">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K69">
         <v>68</v>
@@ -3911,7 +3911,7 @@
         <v>16</v>
       </c>
       <c r="J70">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K70">
         <v>69</v>
@@ -3946,7 +3946,7 @@
         <v>16</v>
       </c>
       <c r="J71">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K71">
         <v>69</v>
@@ -3981,7 +3981,7 @@
         <v>13</v>
       </c>
       <c r="J72">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K72">
         <v>69</v>
@@ -4016,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="J73">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K73">
         <v>72</v>
@@ -4051,7 +4051,7 @@
         <v>16</v>
       </c>
       <c r="J74">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K74">
         <v>73</v>
@@ -4086,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="J75">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K75">
         <v>73</v>
@@ -4121,7 +4121,7 @@
         <v>16</v>
       </c>
       <c r="J76">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K76">
         <v>73</v>
@@ -4156,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="J77">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K77">
         <v>76</v>
@@ -4191,7 +4191,7 @@
         <v>16</v>
       </c>
       <c r="J78">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K78">
         <v>76</v>
@@ -4226,7 +4226,7 @@
         <v>16</v>
       </c>
       <c r="J79">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K79">
         <v>76</v>
@@ -4261,7 +4261,7 @@
         <v>16</v>
       </c>
       <c r="J80">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K80">
         <v>76</v>
@@ -4296,7 +4296,7 @@
         <v>16</v>
       </c>
       <c r="J81">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K81">
         <v>76</v>
@@ -4331,7 +4331,7 @@
         <v>16</v>
       </c>
       <c r="J82">
-        <v>3.9357</v>
+        <v>3.936</v>
       </c>
       <c r="K82">
         <v>76</v>
@@ -4366,7 +4366,7 @@
         <v>119</v>
       </c>
       <c r="J83">
-        <v>3.9143</v>
+        <v>3.914</v>
       </c>
       <c r="K83">
         <v>82</v>
@@ -4401,7 +4401,7 @@
         <v>16</v>
       </c>
       <c r="J84">
-        <v>3.9143</v>
+        <v>3.914</v>
       </c>
       <c r="K84">
         <v>83</v>
@@ -4506,7 +4506,7 @@
         <v>16</v>
       </c>
       <c r="J87">
-        <v>3.8929</v>
+        <v>3.893</v>
       </c>
       <c r="K87">
         <v>86</v>
@@ -4541,7 +4541,7 @@
         <v>13</v>
       </c>
       <c r="J88">
-        <v>3.8929</v>
+        <v>3.893</v>
       </c>
       <c r="K88">
         <v>86</v>
@@ -4576,7 +4576,7 @@
         <v>16</v>
       </c>
       <c r="J89">
-        <v>3.8929</v>
+        <v>3.893</v>
       </c>
       <c r="K89">
         <v>88</v>
@@ -4611,7 +4611,7 @@
         <v>16</v>
       </c>
       <c r="J90">
-        <v>3.8929</v>
+        <v>3.893</v>
       </c>
       <c r="K90">
         <v>88</v>
@@ -4646,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="J91">
-        <v>3.8929</v>
+        <v>3.893</v>
       </c>
       <c r="K91">
         <v>88</v>
@@ -4681,7 +4681,7 @@
         <v>16</v>
       </c>
       <c r="J92">
-        <v>3.8929</v>
+        <v>3.893</v>
       </c>
       <c r="K92">
         <v>88</v>
@@ -4716,7 +4716,7 @@
         <v>16</v>
       </c>
       <c r="J93">
-        <v>3.8714</v>
+        <v>3.871</v>
       </c>
       <c r="K93">
         <v>92</v>
@@ -4751,7 +4751,7 @@
         <v>16</v>
       </c>
       <c r="J94">
-        <v>3.8571</v>
+        <v>3.857</v>
       </c>
       <c r="K94">
         <v>93</v>
@@ -4786,7 +4786,7 @@
         <v>16</v>
       </c>
       <c r="J95">
-        <v>3.8571</v>
+        <v>3.857</v>
       </c>
       <c r="K95">
         <v>94</v>
@@ -5311,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="J110">
-        <v>3.8071</v>
+        <v>3.807</v>
       </c>
       <c r="K110">
         <v>109</v>
@@ -5346,7 +5346,7 @@
         <v>182</v>
       </c>
       <c r="J111">
-        <v>3.7929</v>
+        <v>3.793</v>
       </c>
       <c r="K111">
         <v>110</v>
@@ -5381,7 +5381,7 @@
         <v>13</v>
       </c>
       <c r="J112">
-        <v>3.7857</v>
+        <v>3.786</v>
       </c>
       <c r="K112">
         <v>111</v>
@@ -5416,7 +5416,7 @@
         <v>119</v>
       </c>
       <c r="J113">
-        <v>3.7857</v>
+        <v>3.786</v>
       </c>
       <c r="K113">
         <v>112</v>
@@ -5451,7 +5451,7 @@
         <v>16</v>
       </c>
       <c r="J114">
-        <v>3.7857</v>
+        <v>3.786</v>
       </c>
       <c r="K114">
         <v>112</v>
@@ -5486,7 +5486,7 @@
         <v>13</v>
       </c>
       <c r="J115">
-        <v>3.7643</v>
+        <v>3.764</v>
       </c>
       <c r="K115">
         <v>114</v>

--- a/output/Results - sem1 (Extended).xlsx
+++ b/output/Results - sem1 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="276">
   <si>
     <t>Rank</t>
   </si>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>I-we</t>
   </si>
 </sst>
 </file>
@@ -1991,6 +1994,27 @@
       <c r="K15">
         <v>9</v>
       </c>
+      <c r="N15" t="s">
+        <v>275</v>
+      </c>
+      <c r="O15" t="s">
+        <v>265</v>
+      </c>
+      <c r="P15" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>265</v>
+      </c>
+      <c r="R15" t="s">
+        <v>265</v>
+      </c>
+      <c r="S15" t="s">
+        <v>265</v>
+      </c>
+      <c r="T15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
@@ -3771,7 +3795,7 @@
         <v>13</v>
       </c>
       <c r="J66">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K66">
         <v>65</v>
@@ -3806,7 +3830,7 @@
         <v>13</v>
       </c>
       <c r="J67">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K67">
         <v>66</v>
@@ -3841,7 +3865,7 @@
         <v>13</v>
       </c>
       <c r="J68">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K68">
         <v>67</v>
@@ -3876,7 +3900,7 @@
         <v>16</v>
       </c>
       <c r="J69">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K69">
         <v>68</v>
@@ -3911,7 +3935,7 @@
         <v>16</v>
       </c>
       <c r="J70">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K70">
         <v>69</v>
@@ -3946,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="J71">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K71">
         <v>69</v>
@@ -3981,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="J72">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K72">
         <v>69</v>
@@ -4016,7 +4040,7 @@
         <v>16</v>
       </c>
       <c r="J73">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K73">
         <v>72</v>
@@ -4051,7 +4075,7 @@
         <v>16</v>
       </c>
       <c r="J74">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K74">
         <v>73</v>
@@ -4086,7 +4110,7 @@
         <v>16</v>
       </c>
       <c r="J75">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K75">
         <v>73</v>
@@ -4121,7 +4145,7 @@
         <v>16</v>
       </c>
       <c r="J76">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K76">
         <v>73</v>
@@ -4156,7 +4180,7 @@
         <v>16</v>
       </c>
       <c r="J77">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K77">
         <v>76</v>
@@ -4191,7 +4215,7 @@
         <v>16</v>
       </c>
       <c r="J78">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K78">
         <v>76</v>
@@ -4226,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="J79">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K79">
         <v>76</v>
@@ -4261,7 +4285,7 @@
         <v>16</v>
       </c>
       <c r="J80">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K80">
         <v>76</v>
@@ -4296,7 +4320,7 @@
         <v>16</v>
       </c>
       <c r="J81">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K81">
         <v>76</v>
@@ -4331,7 +4355,7 @@
         <v>16</v>
       </c>
       <c r="J82">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="K82">
         <v>76</v>
@@ -4506,7 +4530,7 @@
         <v>16</v>
       </c>
       <c r="J87">
-        <v>3.893</v>
+        <v>3.892</v>
       </c>
       <c r="K87">
         <v>86</v>
@@ -4541,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="J88">
-        <v>3.893</v>
+        <v>3.892</v>
       </c>
       <c r="K88">
         <v>86</v>
@@ -4576,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="J89">
-        <v>3.893</v>
+        <v>3.892</v>
       </c>
       <c r="K89">
         <v>88</v>
@@ -4611,7 +4635,7 @@
         <v>16</v>
       </c>
       <c r="J90">
-        <v>3.893</v>
+        <v>3.892</v>
       </c>
       <c r="K90">
         <v>88</v>
@@ -4646,7 +4670,7 @@
         <v>16</v>
       </c>
       <c r="J91">
-        <v>3.893</v>
+        <v>3.892</v>
       </c>
       <c r="K91">
         <v>88</v>
@@ -4681,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="J92">
-        <v>3.893</v>
+        <v>3.892</v>
       </c>
       <c r="K92">
         <v>88</v>
@@ -5346,7 +5370,7 @@
         <v>182</v>
       </c>
       <c r="J111">
-        <v>3.793</v>
+        <v>3.792</v>
       </c>
       <c r="K111">
         <v>110</v>
@@ -5381,7 +5405,7 @@
         <v>13</v>
       </c>
       <c r="J112">
-        <v>3.786</v>
+        <v>3.785</v>
       </c>
       <c r="K112">
         <v>111</v>
@@ -5416,7 +5440,7 @@
         <v>119</v>
       </c>
       <c r="J113">
-        <v>3.786</v>
+        <v>3.785</v>
       </c>
       <c r="K113">
         <v>112</v>
@@ -5451,7 +5475,7 @@
         <v>16</v>
       </c>
       <c r="J114">
-        <v>3.786</v>
+        <v>3.785</v>
       </c>
       <c r="K114">
         <v>112</v>
